--- a/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/51.expressoes_aritmeticas/43+-+Expressões+Aritméticas.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/51.expressoes_aritmeticas/43+-+Expressões+Aritméticas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\4.basico_expressoes_e_funcoes\51.expressoes_aritmeticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95ADCF-4CB3-40AB-871D-171C3077B644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA1AFB-01DA-4305-A120-3111AFA91348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Expressões Aritméticas" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -643,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1362,8 +1354,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1372,21 +1384,32 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,19 +1417,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color theme="6" tint="-0.249977111117893"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,7 +1441,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1612,13 +1635,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="13" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="13" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="13" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1"/>
@@ -1631,152 +1652,164 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="62" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="16" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="16" borderId="65" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="68" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5277,39 +5310,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="105" t="s">
+    <row r="2" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="105"/>
+      <c r="C6" s="93"/>
       <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="4.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -5323,7 +5356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -5337,7 +5370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -5345,7 +5378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
@@ -5353,7 +5386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -5361,16 +5394,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="106" t="s">
+    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B15" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -5384,7 +5417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>16</v>
       </c>
@@ -5394,9 +5427,12 @@
       <c r="D18" s="7">
         <v>14</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="14">
+        <f>B18-D18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
         <v>88</v>
       </c>
@@ -5406,9 +5442,12 @@
       <c r="D19" s="16">
         <v>5</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E19" s="17">
+        <f>B19*D19</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>68</v>
       </c>
@@ -5418,9 +5457,12 @@
       <c r="D20" s="7">
         <v>34</v>
       </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E20" s="14">
+        <f>B20/D20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>47</v>
       </c>
@@ -5430,9 +5472,12 @@
       <c r="D21" s="16">
         <v>12</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E21" s="17">
+        <f>B21+D21</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>59</v>
       </c>
@@ -5442,9 +5487,12 @@
       <c r="D22" s="7">
         <v>7</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E22" s="14">
+        <f>B22*D22</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>81</v>
       </c>
@@ -5454,9 +5502,12 @@
       <c r="D23" s="16">
         <v>79</v>
       </c>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E23" s="17">
+        <f>B23-D23</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>2</v>
       </c>
@@ -5466,12 +5517,15 @@
       <c r="D24" s="7">
         <v>3</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="14">
+        <f>B24^D24</f>
+        <v>8</v>
+      </c>
       <c r="G24" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>29</v>
       </c>
@@ -5481,9 +5535,12 @@
       <c r="D25" s="16">
         <v>6</v>
       </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E25" s="17">
+        <f>B25*D25</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>5</v>
       </c>
@@ -5493,9 +5550,12 @@
       <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E26" s="14">
+        <f>B26^D26</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
         <v>41</v>
       </c>
@@ -5505,9 +5565,12 @@
       <c r="D27" s="16">
         <v>77</v>
       </c>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="17">
+        <f>B27-D27</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>13</v>
       </c>
@@ -5517,9 +5580,12 @@
       <c r="D28" s="7">
         <v>7</v>
       </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="14">
+        <f>B28*D28</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>16</v>
       </c>
@@ -5529,9 +5595,12 @@
       <c r="D29" s="16">
         <v>14</v>
       </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="17">
+        <f>B29-D29</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
         <v>4</v>
       </c>
@@ -5541,9 +5610,12 @@
       <c r="D30" s="7">
         <v>4</v>
       </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="14">
+        <f>B30^D30</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -5553,18 +5625,21 @@
       <c r="D31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="107" t="s">
+      <c r="E31" s="20">
+        <f>B31*D31</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="109"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="21" t="s">
         <v>26</v>
       </c>
@@ -5579,7 +5654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="24" t="s">
         <v>27</v>
       </c>
@@ -5594,7 +5669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="26">
         <v>12</v>
       </c>
@@ -5625,142 +5700,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3212A8E-FC8C-4A21-B309-02CF7EED6063}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C7" s="112"/>
-      <c r="E7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="I7" s="110"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="113"/>
-      <c r="E8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="I8" s="111"/>
-    </row>
-    <row r="9" spans="1:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C10" s="112"/>
-      <c r="E10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="I10" s="110"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="113"/>
-      <c r="E11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="I11" s="111"/>
-    </row>
-    <row r="12" spans="1:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="I13" s="110"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="I14" s="111"/>
-    </row>
-    <row r="15" spans="1:9" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="I16" s="110"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="I17" s="111"/>
-    </row>
-    <row r="20" spans="2:9" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="100">
+        <f>25/5</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="103">
+        <f>50/7</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="G7" s="103">
+        <f>12/4</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="103">
+        <f>50/10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="102"/>
+      <c r="E8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="I8" s="104"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="100">
+        <f>-13/5</f>
+        <v>-2.6</v>
+      </c>
+      <c r="E10" s="103">
+        <f>-5/3</f>
+        <v>-1.6666666666666667</v>
+      </c>
+      <c r="G10" s="103">
+        <f>-7/2.5</f>
+        <v>-2.8</v>
+      </c>
+      <c r="I10" s="103">
+        <f>-12/5.2</f>
+        <v>-2.3076923076923075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="102"/>
+      <c r="E11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="I11" s="104"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="103">
+        <f>-25/-5</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="103">
+        <f>-18/-9</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="103">
+        <f>-6/-1.9</f>
+        <v>3.1578947368421053</v>
+      </c>
+      <c r="I13" s="103">
+        <v>2.4358974358974361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="103">
+        <f>(10+3)/(5+2)</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="E16" s="103">
+        <f>(5+2)/(-3+2)</f>
+        <v>-7</v>
+      </c>
+      <c r="G16" s="103">
+        <f>(-2-9)/(6+3)</f>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="I16" s="103">
+        <f>(9*2)/(-5-2)</f>
+        <v>-2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="I17" s="104"/>
+    </row>
+    <row r="20" spans="2:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-    </row>
-    <row r="27" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-    </row>
-    <row r="31" spans="2:9" ht="8.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-    </row>
-    <row r="35" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="105">
+        <f>(10+10+10+9.5)/4</f>
+        <v>9.875</v>
+      </c>
+      <c r="C24" s="106"/>
+    </row>
+    <row r="27" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="98">
+        <f>(5+(2*3) -3)</f>
+        <v>8</v>
+      </c>
+      <c r="C28" s="99"/>
+    </row>
+    <row r="31" spans="2:9" ht="8.5500000000000007" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="98">
+        <f>(2*(2-(-3+2)+5)^2)</f>
+        <v>128</v>
+      </c>
+      <c r="C32" s="99"/>
+    </row>
+    <row r="35" spans="2:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="112"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="116"/>
-    </row>
-    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="113"/>
-    </row>
-    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="112"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="116"/>
-    </row>
-    <row r="43" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="113"/>
+    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="100">
+        <f>(5-1)/2+(3/2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="101"/>
+    </row>
+    <row r="39" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="102"/>
+    </row>
+    <row r="40" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="100">
+        <f>((-2*2)/(2-1)+3/2)+(2/1.5)</f>
+        <v>-1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="101"/>
+    </row>
+    <row r="43" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="A1:XFD2"/>
     <mergeCell ref="C7:C8"/>
@@ -5776,6 +5906,13 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5787,45 +5924,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8142D57B-97B8-4075-A765-7A2DE45E5D3B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.08984375" customWidth="1"/>
-    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="121" t="s">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
         <v>69</v>
       </c>
@@ -5863,7 +6002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="38">
         <v>150</v>
       </c>
@@ -5873,7 +6012,10 @@
       <c r="D6" s="39">
         <v>3.9</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="40">
+        <f>B6*D6</f>
+        <v>585</v>
+      </c>
       <c r="G6" s="38">
         <v>2</v>
       </c>
@@ -5883,7 +6025,10 @@
       <c r="I6" s="39">
         <v>40</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="40">
+        <f>G6*I6</f>
+        <v>80</v>
+      </c>
       <c r="L6" s="38">
         <v>30</v>
       </c>
@@ -5893,9 +6038,12 @@
       <c r="N6" s="39">
         <v>32</v>
       </c>
-      <c r="O6" s="40"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O6" s="40">
+        <f>L6*N6</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="41">
         <v>80</v>
       </c>
@@ -5905,7 +6053,10 @@
       <c r="D7" s="43">
         <v>5.6</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="43">
+        <f t="shared" ref="E7:E13" si="0">B7*D7</f>
+        <v>448</v>
+      </c>
       <c r="G7" s="41">
         <v>3</v>
       </c>
@@ -5915,7 +6066,10 @@
       <c r="I7" s="43">
         <v>120</v>
       </c>
-      <c r="J7" s="44"/>
+      <c r="J7" s="43">
+        <f t="shared" ref="J7:J13" si="1">G7*I7</f>
+        <v>360</v>
+      </c>
       <c r="L7" s="41">
         <v>20</v>
       </c>
@@ -5925,9 +6079,12 @@
       <c r="N7" s="43">
         <v>5</v>
       </c>
-      <c r="O7" s="44"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O7" s="44">
+        <f t="shared" ref="O7:O13" si="2">L7*N7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="38">
         <v>50</v>
       </c>
@@ -5937,7 +6094,10 @@
       <c r="D8" s="39">
         <v>3</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="40">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
       <c r="G8" s="38">
         <v>5</v>
       </c>
@@ -5947,7 +6107,10 @@
       <c r="I8" s="39">
         <v>30</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="L8" s="38">
         <v>400</v>
       </c>
@@ -5957,9 +6120,12 @@
       <c r="N8" s="39">
         <v>5</v>
       </c>
-      <c r="O8" s="40"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O8" s="40">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="41">
         <v>50</v>
       </c>
@@ -5969,7 +6135,10 @@
       <c r="D9" s="43">
         <v>7.5</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="43">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
       <c r="G9" s="41">
         <v>6</v>
       </c>
@@ -5979,7 +6148,10 @@
       <c r="I9" s="43">
         <v>55</v>
       </c>
-      <c r="J9" s="44"/>
+      <c r="J9" s="43">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
       <c r="L9" s="41">
         <v>400</v>
       </c>
@@ -5989,9 +6161,12 @@
       <c r="N9" s="43">
         <v>5</v>
       </c>
-      <c r="O9" s="44"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O9" s="44">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="38">
         <v>20</v>
       </c>
@@ -6001,7 +6176,10 @@
       <c r="D10" s="39">
         <v>32</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="40">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
       <c r="G10" s="38">
         <v>5</v>
       </c>
@@ -6011,7 +6189,10 @@
       <c r="I10" s="39">
         <v>130</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="40">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
       <c r="L10" s="38">
         <v>23</v>
       </c>
@@ -6021,9 +6202,12 @@
       <c r="N10" s="39">
         <v>11</v>
       </c>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O10" s="40">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="41">
         <v>20</v>
       </c>
@@ -6033,7 +6217,10 @@
       <c r="D11" s="43">
         <v>50</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="43">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="G11" s="41">
         <v>2</v>
       </c>
@@ -6043,7 +6230,10 @@
       <c r="I11" s="43">
         <v>70</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="43">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
       <c r="L11" s="41">
         <v>50</v>
       </c>
@@ -6053,9 +6243,12 @@
       <c r="N11" s="43">
         <v>2.1</v>
       </c>
-      <c r="O11" s="44"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O11" s="44">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="38">
         <v>5</v>
       </c>
@@ -6065,7 +6258,10 @@
       <c r="D12" s="39">
         <v>30</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="40">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
       <c r="G12" s="38">
         <v>2</v>
       </c>
@@ -6075,7 +6271,10 @@
       <c r="I12" s="39">
         <v>40</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="40">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
       <c r="L12" s="38">
         <v>150</v>
       </c>
@@ -6085,9 +6284,12 @@
       <c r="N12" s="39">
         <v>0.8</v>
       </c>
-      <c r="O12" s="40"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O12" s="40">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="41">
         <v>3</v>
       </c>
@@ -6097,7 +6299,10 @@
       <c r="D13" s="43">
         <v>30</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="43">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="G13" s="41">
         <v>5</v>
       </c>
@@ -6107,7 +6312,10 @@
       <c r="I13" s="43">
         <v>8</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="L13" s="41">
         <v>10</v>
       </c>
@@ -6117,27 +6325,39 @@
       <c r="N13" s="43">
         <v>3.2</v>
       </c>
-      <c r="O13" s="44"/>
-    </row>
-    <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="119" t="s">
+      <c r="O13" s="44">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="45"/>
-      <c r="G14" s="119" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="45">
+        <f>SUM(E6:E13)</f>
+        <v>3438</v>
+      </c>
+      <c r="G14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="45"/>
-      <c r="L14" s="119" t="s">
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="45">
+        <f>SUM(J6:J13)</f>
+        <v>1830</v>
+      </c>
+      <c r="L14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="45"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="45">
+        <f>SUM(O6:O13)</f>
+        <v>5570</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6155,28 +6375,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133752-82FB-40EB-8086-96F71212A8AE}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="122" t="s">
+    <row r="2" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
         <v>88</v>
       </c>
@@ -6196,7 +6418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="48">
         <v>1</v>
       </c>
@@ -6212,12 +6434,15 @@
       <c r="F5" s="54">
         <v>350</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="55">
+        <f>F5+F5*E5</f>
+        <v>437.5</v>
+      </c>
       <c r="I5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="49">
         <v>2</v>
       </c>
@@ -6233,9 +6458,12 @@
       <c r="F6" s="56">
         <v>260</v>
       </c>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G6" s="57">
+        <f>F6+F6*E6</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="48">
         <v>3</v>
       </c>
@@ -6251,9 +6479,12 @@
       <c r="F7" s="54">
         <v>330</v>
       </c>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G7" s="57">
+        <f>F7+F7*E7</f>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="49">
         <v>4</v>
       </c>
@@ -6269,9 +6500,12 @@
       <c r="F8" s="56">
         <v>180</v>
       </c>
-      <c r="G8" s="57"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G8" s="57">
+        <f>F8+F8*E8</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="48">
         <v>5</v>
       </c>
@@ -6287,9 +6521,12 @@
       <c r="F9" s="54">
         <v>280</v>
       </c>
-      <c r="G9" s="55"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G9" s="55">
+        <f>F9+F9*E9</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="49">
         <v>6</v>
       </c>
@@ -6305,9 +6542,12 @@
       <c r="F10" s="56">
         <v>225</v>
       </c>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G10" s="57">
+        <f>F10+F10*E10</f>
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="48">
         <v>7</v>
       </c>
@@ -6323,9 +6563,12 @@
       <c r="F11" s="54">
         <v>100</v>
       </c>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G11" s="55">
+        <f>F11+F11*E11</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="49">
         <v>8</v>
       </c>
@@ -6341,9 +6584,12 @@
       <c r="F12" s="56">
         <v>22</v>
       </c>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G12" s="57">
+        <f>F12+F12*E12</f>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="48">
         <v>9</v>
       </c>
@@ -6359,9 +6605,12 @@
       <c r="F13" s="54">
         <v>360</v>
       </c>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="G13" s="55">
+        <f>F13+F13*E13</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="49">
         <v>10</v>
       </c>
@@ -6377,9 +6626,12 @@
       <c r="F14" s="56">
         <v>195</v>
       </c>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="57">
+        <f>F14+F14*E14</f>
+        <v>224.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="50">
         <v>11</v>
       </c>
@@ -6395,7 +6647,10 @@
       <c r="F15" s="58">
         <v>380</v>
       </c>
-      <c r="G15" s="59"/>
+      <c r="G15" s="59">
+        <f>F15+F15*E15</f>
+        <v>475</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6409,46 +6664,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7E259B-40FE-4DC2-9E37-22E042BF309A}">
   <dimension ref="E2:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="E2" s="123" t="s">
+    <row r="2" spans="5:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="E2" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-    </row>
-    <row r="3" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+    </row>
+    <row r="3" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E4" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="124">
+      <c r="F4" s="112">
         <v>1600</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-    </row>
-    <row r="5" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="112"/>
+      <c r="H4" s="113"/>
+    </row>
+    <row r="5" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E5" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="126">
+      <c r="F5" s="114">
         <v>44670</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="127"/>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E7" s="65" t="s">
         <v>103</v>
       </c>
@@ -6462,7 +6719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>99</v>
       </c>
@@ -6476,7 +6733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E9" s="66" t="s">
         <v>98</v>
       </c>
@@ -6490,7 +6747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>97</v>
       </c>
@@ -6504,7 +6761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E11" s="66" t="s">
         <v>96</v>
       </c>
@@ -6518,7 +6775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>95</v>
       </c>
@@ -6532,7 +6789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E13" s="66" t="s">
         <v>93</v>
       </c>
@@ -6546,22 +6803,28 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E15" s="128" t="s">
+    <row r="14" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="129"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
-    </row>
-    <row r="16" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="130" t="s">
+      <c r="F15" s="117"/>
+      <c r="G15" s="122">
+        <f>G8+G10+G11+G12</f>
+        <v>706.17</v>
+      </c>
+      <c r="H15" s="123"/>
+    </row>
+    <row r="16" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120">
+        <f>F4-G15</f>
+        <v>893.83</v>
+      </c>
+      <c r="H16" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6590,37 +6853,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3EDCCF-260A-4A84-9D25-F4F6652344B6}">
   <dimension ref="E2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="E2" s="136" t="s">
+    <row r="2" spans="5:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="E2" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-    </row>
-    <row r="3" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="137" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+    </row>
+    <row r="3" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="86">
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="84">
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E6" s="75" t="s">
         <v>119</v>
       </c>
@@ -6634,7 +6899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E7" s="78" t="s">
         <v>116</v>
       </c>
@@ -6644,9 +6909,12 @@
       <c r="G7" s="72">
         <v>120</v>
       </c>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="79">
+        <f>F7*G7</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E8" s="80" t="s">
         <v>115</v>
       </c>
@@ -6656,9 +6924,12 @@
       <c r="G8" s="74">
         <v>22.7</v>
       </c>
-      <c r="H8" s="81"/>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="79">
+        <f>F8*G8</f>
+        <v>635.6</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E9" s="78" t="s">
         <v>114</v>
       </c>
@@ -6668,9 +6939,12 @@
       <c r="G9" s="72">
         <v>7.5</v>
       </c>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="79">
+        <f>F9*G9</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E10" s="80" t="s">
         <v>113</v>
       </c>
@@ -6680,9 +6954,12 @@
       <c r="G10" s="74">
         <v>1.05</v>
       </c>
-      <c r="H10" s="81"/>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="79">
+        <f>F10*G10</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E11" s="78" t="s">
         <v>112</v>
       </c>
@@ -6692,9 +6969,12 @@
       <c r="G11" s="72">
         <v>42</v>
       </c>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="79">
+        <f>F11*G11</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E12" s="80" t="s">
         <v>111</v>
       </c>
@@ -6704,9 +6984,12 @@
       <c r="G12" s="74">
         <v>0.85</v>
       </c>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="79">
+        <f>F12*G12</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E13" s="78" t="s">
         <v>110</v>
       </c>
@@ -6716,32 +6999,44 @@
       <c r="G13" s="72">
         <v>6.5</v>
       </c>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="82" t="s">
+      <c r="H13" s="79">
+        <f>F13*G13</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="82">
         <v>115</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="83">
         <v>12</v>
       </c>
-      <c r="H14" s="85"/>
-    </row>
-    <row r="15" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="79">
+        <f>F14*G14</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G16" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="87"/>
-    </row>
-    <row r="17" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="85">
+        <f>SUM(H7:H14)</f>
+        <v>6970.6</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="86">
+        <f>H4-H16</f>
+        <v>11029.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6756,143 +7051,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22736A24-DB3D-4B16-A435-5A05CD1E725A}">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="138" t="s">
+    <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="139" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="140">
+      <c r="D4" s="127"/>
+      <c r="E4" s="128">
         <v>0.7</v>
       </c>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="89" t="s">
+      <c r="F4" s="128"/>
+    </row>
+    <row r="5" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="89" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="92">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="133">
         <v>1</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="130">
         <v>27.9</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="93">
+      <c r="E7" s="130">
+        <f>D7+F7</f>
+        <v>47.429999999999993</v>
+      </c>
+      <c r="F7" s="136">
+        <f>D7*$E$4</f>
+        <v>19.529999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="134">
         <v>2</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="91">
         <v>16.899999999999999</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="92">
+      <c r="E8" s="91">
+        <f t="shared" ref="E8:E13" si="0">D8+F8</f>
+        <v>28.729999999999997</v>
+      </c>
+      <c r="F8" s="137">
+        <f t="shared" ref="F8:F13" si="1">D8*$E$4</f>
+        <v>11.829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="135">
         <v>3</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="90">
         <v>21.5</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="93">
+      <c r="E9" s="90">
+        <f t="shared" si="0"/>
+        <v>36.549999999999997</v>
+      </c>
+      <c r="F9" s="138">
+        <f t="shared" si="1"/>
+        <v>15.049999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="134">
         <v>4</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="91">
         <v>32</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="92">
+      <c r="E10" s="91">
+        <f t="shared" si="0"/>
+        <v>54.4</v>
+      </c>
+      <c r="F10" s="137">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="135">
         <v>5</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="90">
         <v>35.5</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="93">
+      <c r="E11" s="90">
+        <f t="shared" si="0"/>
+        <v>60.349999999999994</v>
+      </c>
+      <c r="F11" s="138">
+        <f t="shared" si="1"/>
+        <v>24.849999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="134">
         <v>6</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="91">
         <v>31.5</v>
       </c>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="94">
+      <c r="E12" s="91">
+        <f t="shared" si="0"/>
+        <v>53.55</v>
+      </c>
+      <c r="F12" s="137">
+        <f t="shared" si="1"/>
+        <v>22.049999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="139">
         <v>7</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="141">
         <v>65.5</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="E13" s="141">
+        <f t="shared" si="0"/>
+        <v>111.35</v>
+      </c>
+      <c r="F13" s="142">
+        <f t="shared" si="1"/>
+        <v>45.849999999999994</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6912,29 +7251,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="104" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:3" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -6942,7 +7281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -6950,18 +7289,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
